--- a/site/src/data/SupportGeneralFaq.xlsx
+++ b/site/src/data/SupportGeneralFaq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danwade/Documents/devel/gatsby-digilock/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danwade/Documents/devel/digilock-2021/site/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88099BA4-4ED4-E84F-9174-CC4E60C77902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A333BA-6A73-EA41-8038-FDB77A75CB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LockFunctionality" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>Where can I find my local distributor?</t>
   </si>
   <si>
-    <t>&lt;a href="/contact/?dealers"&gt;See dealers listed here.&lt;/a&gt; If you do not see a distributor near you, please call 1-800-989-0201 or email &lt;a href="mailto:sales@digilock.com"&gt;sales@digilock.com&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Why haven't I  received my quote?</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>The following locks in shared-use mode can be programmed to automatically unlock within 1-99 hours&lt;ul&gt;&lt;li&gt;Digital Keypad&lt;/li&gt;&lt;li&gt;Digital RFID Networked (cloud-based&lt;/li&gt;&lt;li&gt;Advanced (tablet-based programming)&lt;/li&gt;&lt;/ul&gt; For more information, please contact &lt;a href="mailto:support@digilock.com"&gt;support@digilock.com&lt;/a&gt; or utilize our support chat online to learn more.</t>
+  </si>
+  <si>
+    <t>&lt;a href="/where-to-buy/#gotoPartners"&gt;See dealers listed here.&lt;/a&gt; If you do not see a distributor near you, please call 1-800-989-0201 or email &lt;a href="mailto:sales@digilock.com"&gt;sales@digilock.com&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -777,15 +777,15 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C65395-EE16-644A-B1B5-6A4EA57DC84C}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="44" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="44" x14ac:dyDescent="0.25">
@@ -905,18 +905,18 @@
     </row>
     <row r="13" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8547CD71-C69E-7649-AB1F-37B5F4040434}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1066,63 +1066,63 @@
         <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="44" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="44" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="44" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="44" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
